--- a/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
+++ b/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">non-spatial continuous framework</t>
   </si>
   <si>
-    <t xml:space="preserve">^tiny_example_\d+$</t>
+    <t xml:space="preserve">^minimal_model$</t>
   </si>
   <si>
     <t xml:space="preserve">model</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve"># compartment</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">cell</t>
   </si>
   <si>
     <t xml:space="preserve">compartment</t>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">go/GO:0005623</t>
   </si>
   <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
     <t xml:space="preserve">fma/FMA:68646</t>
   </si>
   <si>
@@ -130,10 +127,13 @@
     <t xml:space="preserve">maximal velocity</t>
   </si>
   <si>
+    <t xml:space="preserve">^k\d+$</t>
+  </si>
+  <si>
     <t xml:space="preserve"># species</t>
   </si>
   <si>
-    <t xml:space="preserve">glc</t>
+    <t xml:space="preserve">^S\d+$</t>
   </si>
   <si>
     <t xml:space="preserve">species</t>
@@ -145,6 +145,9 @@
     <t xml:space="preserve">simple chemical</t>
   </si>
   <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
     <t xml:space="preserve">chebi/CHEBI:4167</t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">g6p</t>
+    <t xml:space="preserve">S2</t>
   </si>
   <si>
     <t xml:space="preserve">chebi/CHEBI:58225</t>
@@ -191,93 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chebi/CHEBI:30616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP(4-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kegg.compound/C00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H12N5O13P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chebi/CHEBI:456216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP(3-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kegg.compound/C00008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H12N5O10P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chebi/CHEBI:15378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kegg.compound/C00080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chebi/CHEBI:43474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogenphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kegg.compound/C00009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO4P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chebi/CHEBI:15377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kegg.compound/C00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
   </si>
   <si>
     <t xml:space="preserve"># reactions</t>
@@ -356,7 +272,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +289,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,39 +379,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -562,25 +456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1022" min="7" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.63775510204082"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -767,10 +661,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -791,7 +685,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -805,10 +699,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -817,10 +711,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -829,10 +723,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -841,10 +735,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -852,50 +746,50 @@
       <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -914,11 +808,11 @@
       <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>42</v>
+      <c r="E17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -926,24 +820,12 @@
       <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -951,19 +833,23 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -971,19 +857,23 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="0"/>
+        <v>44</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -991,23 +881,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -1015,23 +901,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D22" s="0"/>
       <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -1039,7 +921,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>38</v>
@@ -1048,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
@@ -1063,19 +945,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
@@ -1083,16 +969,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="0"/>
@@ -1103,667 +989,170 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>64</v>
+      <c r="A32" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="B35" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>90</v>
+      <c r="E35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
+++ b/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -199,7 +199,7 @@
     <t xml:space="preserve"># reactions</t>
   </si>
   <si>
-    <t xml:space="preserve">GK</t>
+    <t xml:space="preserve">^J\d+$</t>
   </si>
   <si>
     <t xml:space="preserve">reaction</t>
@@ -211,6 +211,9 @@
     <t xml:space="preserve">biochemical reaction</t>
   </si>
   <si>
+    <t xml:space="preserve">J0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ec-code/2.7.1.2</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">rhea/36495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPASE</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,9 +257,24 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -326,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,11 +350,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,39 +382,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,7 +475,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -463,7 +498,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,28 +507,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="20.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0"/>
@@ -502,34 +537,34 @@
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="0"/>
@@ -538,22 +573,22 @@
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="0"/>
@@ -562,22 +597,22 @@
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="0"/>
@@ -586,36 +621,36 @@
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="0"/>
@@ -624,22 +659,22 @@
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="0"/>
@@ -648,22 +683,22 @@
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="0"/>
@@ -677,43 +712,42 @@
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="0"/>
@@ -722,22 +756,22 @@
       <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="0"/>
@@ -746,22 +780,22 @@
       <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="0"/>
@@ -770,48 +804,48 @@
       <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="0"/>
@@ -825,29 +859,28 @@
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="0"/>
@@ -856,22 +889,22 @@
       <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="0"/>
@@ -880,62 +913,60 @@
       <c r="J20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="0"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="0"/>
@@ -944,22 +975,22 @@
       <c r="J23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="0"/>
@@ -968,40 +999,38 @@
       <c r="J24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -1013,113 +1042,108 @@
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="0"/>
+      <c r="E31" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="0"/>
+      <c r="E32" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="0"/>
+      <c r="E33" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
@@ -1127,27 +1151,13 @@
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
+++ b/src/sbmlutils/examples/minimal_example/minimal_model_annotations.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
